--- a/biology/Médecine/Serge_Roques/Serge_Roques.xlsx
+++ b/biology/Médecine/Serge_Roques/Serge_Roques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Serge Roques est un médecin et homme politique français, né le 11 juin 1947 à Albi (Tarn).
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Serge Roques est élu député le 16 juin 2002, pour la XIIe législature (2002-2007), dans la deuxième circonscription de l'Aveyron. Il fait partie du groupe UMP. Élu premier magistrat de la commune de Villefranche de Rouergue pendant plus de 19 ans (2001-2020). Il est conseiller général du canton de Villefranche-du-Rouergue de 1992 à 1998.
 </t>
@@ -543,7 +557,9 @@
           <t>Mandats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>20/03/1989 - 18/06/1995 : membre du conseil municipal de Villefranche-de-Rouergue (Aveyron)
 30/03/1992 - 22/03/1998 : membre du Conseil général de l'Aveyron
